--- a/BackEnd/DocumentManagement/DocumentManagement/FilesUpload/DanhSachHoSo.xlsx
+++ b/BackEnd/DocumentManagement/DocumentManagement/FilesUpload/DanhSachHoSo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Thống kê danh sách hồ số</t>
   </si>
@@ -41,34 +41,40 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Phi test hộp số</t>
-  </si>
-  <si>
-    <t>TDHS</t>
-  </si>
-  <si>
-    <t>17/4/2021</t>
-  </si>
-  <si>
-    <t>20/4/2021</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>HS_1001</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>05/12/2023</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Hồ sơ công việc</t>
   </si>
   <si>
-    <t>Mo ta</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>dá</t>
+    <t/>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>Tâm test hồ sơ</t>
+  </si>
+  <si>
+    <t>17/12/2022</t>
+  </si>
+  <si>
+    <t>17/1/2023</t>
   </si>
 </sst>
 </file>
@@ -109,17 +115,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -131,8 +137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" state="frozen" activePane="bottomLeft"/>
@@ -233,13 +239,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
@@ -248,58 +254,8 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
